--- a/biology/Histoire de la zoologie et de la botanique/Albert_Collart/Albert_Collart.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albert_Collart/Albert_Collart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Collart, né le 10 décembre 1899 à Liège et mort le 1er novembre 1993 à Auderghem, est un entomologiste connu pour sa passion des ex-libris.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Collart est né le 10 décembre 1899. Après avoir suivi une formation accélérée à l'école de médecine tropicale installée dans le château Duden à Forest, il entame en 1923 une carrière d'agent sanitaire au Congo belge[1]. Naturaliste amateur, il collectionne des insectes et transmet ses observations au Musée royal de l'Afrique centrale à Tervuren[2]. Transféré au laboratoire de parasitologie de Stanleyville, il étudie divers parasites et participe à une mission d'étude de la peste dans la région du lac Albert[3].
-De retour en Belgique au début des années 1930, il commence une nouvelle carrière d'aide-naturaliste à l'Institut royal des sciences naturelles à Bruxelles. Gravissant les échelons hiérarchiques, il y est finalement nommé directeur de laboratoire en 1952 et occupe ce poste jusqu'à sa retraite fin 1964[4]. 
-Il meurt le 1er novembre 1993 à Auderghem. Ses cendres sont dispersées au cimetière de Robermont, dans sa ville natale à laquelle il était resté très attaché[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Collart est né le 10 décembre 1899. Après avoir suivi une formation accélérée à l'école de médecine tropicale installée dans le château Duden à Forest, il entame en 1923 une carrière d'agent sanitaire au Congo belge. Naturaliste amateur, il collectionne des insectes et transmet ses observations au Musée royal de l'Afrique centrale à Tervuren. Transféré au laboratoire de parasitologie de Stanleyville, il étudie divers parasites et participe à une mission d'étude de la peste dans la région du lac Albert.
+De retour en Belgique au début des années 1930, il commence une nouvelle carrière d'aide-naturaliste à l'Institut royal des sciences naturelles à Bruxelles. Gravissant les échelons hiérarchiques, il y est finalement nommé directeur de laboratoire en 1952 et occupe ce poste jusqu'à sa retraite fin 1964. 
+Il meurt le 1er novembre 1993 à Auderghem. Ses cendres sont dispersées au cimetière de Robermont, dans sa ville natale à laquelle il était resté très attaché.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Collectionneur d'ex-libris</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Collart a découvert les ex-libris en 1952 lors de visites aux libraires et salles de vente. Très vite, il s’est intéressé et passionné pour ces vignettes qu’il s’est mis à rechercher. Il découvrit la même année 1952 l’Association Belge Des Collectionneurs et Dessinateurs d’Ex-libris (ABCDE) dont il devint un membre et un collaborateur assidu notamment par les nombreuses publications dans le bulletin de liaison. L’association ne dura que quelques années. 
-Il fut alors membre fondateur d’une nouvelle association : Graphia. Là aussi il publia de nombreux articles et devint, finalement, président de Graphia. À son décès, en 1993, sa collection était riche de plus de 80 000 pièces et il possédait plus de 200 ex-libris à son nom[5]. Cette collection fut vendue aux Pays-Bas et ses ex-libris personnels sont en possession de son neveu Louis Pâque de Liège.[réf. nécessaire]
+Il fut alors membre fondateur d’une nouvelle association : Graphia. Là aussi il publia de nombreux articles et devint, finalement, président de Graphia. À son décès, en 1993, sa collection était riche de plus de 80 000 pièces et il possédait plus de 200 ex-libris à son nom. Cette collection fut vendue aux Pays-Bas et ses ex-libris personnels sont en possession de son neveu Louis Pâque de Liège.[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(es) Albert Collart, Gianni Mantero: el exlibris, Barcelone, Luis Bardón Mesa, coll. « Biblioteca del Exlibrista » (no 9), 1965, 147 p.</t>
         </is>
